--- a/log_history/Y4_B2526_Psychiatry_scanner1759143916571_272efcfda7bd3208e090f05a24198cc42a8b7c15230d58e6534a6eec0a74da5a.xlsx
+++ b/log_history/Y4_B2526_Psychiatry_scanner1759143916571_272efcfda7bd3208e090f05a24198cc42a8b7c15230d58e6534a6eec0a74da5a.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Session" sheetId="1" r:id="rId1"/>
+    <sheet name="Psychiatry" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
